--- a/Service.Catalog/wwwroot/layout/excel/company/CompañiaListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/company/CompañiaListado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\company\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\company\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C94D1-0732-4269-85DD-32A7122614B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B62850B-CBB3-4001-9D35-88F64E5BF5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="1905" yWindow="195" windowWidth="14865" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Compañias" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>{{item.Procedencia}}</t>
   </si>
   <si>
-    <t>{{item.ListaPrecioId}}</t>
+    <t>{{item.PrecioLista}}</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
